--- a/testing_data/user_import_template.xlsx
+++ b/testing_data/user_import_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kansa\OneDrive\Desktop\convergeai_conference_chatbot_system\testing_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0CEBB0-C32F-4309-9A92-C82A2AB077F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31227C94-BCB4-4C88-A41D-B237C1D6681B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,9 +37,6 @@
     <t>Amit Patel</t>
   </si>
   <si>
-    <t>amit.patel@example.com</t>
-  </si>
-  <si>
     <t>amitp</t>
   </si>
   <si>
@@ -49,9 +46,6 @@
     <t>Riya Shah</t>
   </si>
   <si>
-    <t>riya.shah@example.com</t>
-  </si>
-  <si>
     <t>riyash</t>
   </si>
   <si>
@@ -61,26 +55,40 @@
     <t>Kunal Mehta</t>
   </si>
   <si>
-    <t>kunal.mehta@example.com</t>
-  </si>
-  <si>
     <t>Sneha Desai</t>
   </si>
   <si>
-    <t>sneha.desai@example.com</t>
-  </si>
-  <si>
     <t>snehad</t>
+  </si>
+  <si>
+    <t>patelved5258@gmail.com</t>
+  </si>
+  <si>
+    <t>23012011082@gnu.ac.in</t>
+  </si>
+  <si>
+    <t>kansagara.krish2006@gmail.com</t>
+  </si>
+  <si>
+    <t>23012011026@gnu.ac.in</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -103,13 +111,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -413,7 +424,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,50 +447,56 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{95FE4092-40F5-4085-91BB-2D51EA0AA37D}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{78DF3401-B430-4DBA-9925-5A3F304A50A8}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{38EF4E2E-27F0-4A46-AF0E-9C97002C0026}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{E0A82EA5-E8E8-4B66-B3E9-0C9E186E8436}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>